--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1027">
   <si>
     <t>anchor score</t>
   </si>
@@ -454,430 +454,430 @@
     <t>corona</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>stays</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>stays</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>best</t>
@@ -3460,10 +3460,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3521,7 +3521,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02955655826735908</v>
+        <v>0.02997794446752248</v>
       </c>
       <c r="C3">
         <v>147</v>
@@ -3542,28 +3542,28 @@
         <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="K3">
-        <v>0.004841099739851854</v>
+        <v>0.007669304810247667</v>
       </c>
       <c r="L3">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M3">
         <v>176</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>207</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3571,7 +3571,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02111182733382792</v>
+        <v>0.02141281747680177</v>
       </c>
       <c r="C4">
         <v>75</v>
@@ -3592,28 +3592,28 @@
         <v>441</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="K4">
-        <v>0.004356715392802118</v>
+        <v>0.007150647677948585</v>
       </c>
       <c r="L4">
-        <v>349</v>
+        <v>153</v>
       </c>
       <c r="M4">
-        <v>359</v>
+        <v>153</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2748</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01090210075625627</v>
+        <v>0.01105753139773765</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -3642,28 +3642,28 @@
         <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="K5">
-        <v>0.004208599504182062</v>
+        <v>0.004841099739851854</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3671,7 +3671,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01005124026001911</v>
+        <v>0.01019454023093542</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3692,28 +3692,28 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="K6">
-        <v>0.004046669209300347</v>
+        <v>0.004356715392802118</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>359</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>437</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3721,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01005124026001911</v>
+        <v>0.01019454023093542</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -3742,16 +3742,16 @@
         <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K7">
-        <v>0.003920835130003938</v>
+        <v>0.004208599504182062</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3771,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008085214313471227</v>
+        <v>0.008200484762291476</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -3792,16 +3792,16 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K8">
-        <v>0.003920835130003938</v>
+        <v>0.004046669209300347</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>43</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3821,7 +3821,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0077089493739278</v>
+        <v>0.007818855434523457</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3842,28 +3842,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="K9">
-        <v>0.003312225689920344</v>
+        <v>0.003920835130003938</v>
       </c>
       <c r="L9">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3871,7 +3871,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006895093934082802</v>
+        <v>0.006993396903135242</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3892,16 +3892,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K10">
-        <v>0.003218700087386288</v>
+        <v>0.003920835130003938</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3921,7 +3921,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006895093934082802</v>
+        <v>0.006993396903135242</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -3942,16 +3942,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K11">
-        <v>0.0030936458817276</v>
+        <v>0.003312225689920344</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>0.99</v>
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3971,7 +3971,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006449769787740278</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -3992,28 +3992,28 @@
         <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="K12">
-        <v>0.003058378127855917</v>
+        <v>0.003218700087386288</v>
       </c>
       <c r="L12">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="N12">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1882</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4021,7 +4021,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006449769787740278</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -4042,28 +4042,28 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="K13">
-        <v>0.002947720751896794</v>
+        <v>0.0030936458817276</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4071,7 +4071,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006449769787740278</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4092,28 +4092,28 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="K14">
-        <v>0.002772449108340223</v>
+        <v>0.003058378127855917</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4121,7 +4121,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006449769787740278</v>
+        <v>0.006541723795314495</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -4142,16 +4142,16 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K15">
-        <v>0.00264916685200942</v>
+        <v>0.002947720751896794</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>209</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4171,7 +4171,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4192,16 +4192,16 @@
         <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K16">
-        <v>0.00264916685200942</v>
+        <v>0.002772449108340223</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4221,7 +4221,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4242,28 +4242,28 @@
         <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>149</v>
+        <v>295</v>
       </c>
       <c r="K17">
-        <v>0.002632248489666646</v>
+        <v>0.00264916685200942</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4271,7 +4271,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4292,28 +4292,28 @@
         <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="K18">
-        <v>0.002592751072117448</v>
+        <v>0.00264916685200942</v>
       </c>
       <c r="L18">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2989</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4321,7 +4321,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4342,28 +4342,28 @@
         <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="K19">
-        <v>0.002585322124128829</v>
+        <v>0.002632248489666646</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4371,7 +4371,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005971326508395691</v>
+        <v>0.00605645937686254</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4392,28 +4392,28 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="K20">
-        <v>0.002585322124128829</v>
+        <v>0.002592751072117448</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>81</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4421,7 +4421,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4442,28 +4442,28 @@
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="K21">
-        <v>0.002567370380763581</v>
+        <v>0.002585322124128829</v>
       </c>
       <c r="L21">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>320</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4471,7 +4471,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4492,28 +4492,28 @@
         <v>46</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="K22">
-        <v>0.002567370380763581</v>
+        <v>0.002585322124128829</v>
       </c>
       <c r="L22">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4521,7 +4521,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4542,28 +4542,28 @@
         <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K23">
-        <v>0.002525393540340422</v>
+        <v>0.002567370380763581</v>
       </c>
       <c r="L23">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="M23">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4571,7 +4571,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4592,28 +4592,28 @@
         <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="K24">
-        <v>0.002519860305896837</v>
+        <v>0.002567370380763581</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4621,7 +4621,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4642,7 +4642,7 @@
         <v>21</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K25">
         <v>0.002519860305896837</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4671,7 +4671,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4692,16 +4692,16 @@
         <v>72</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K26">
-        <v>0.002452651919241497</v>
+        <v>0.002519860305896837</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>263</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4721,7 +4721,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4742,7 +4742,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K27">
         <v>0.002452651919241497</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4771,7 +4771,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005451050378128137</v>
+        <v>0.005528765698868825</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4792,16 +4792,16 @@
         <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K28">
-        <v>0.002383549225982862</v>
+        <v>0.002452651919241497</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4821,7 +4821,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4842,7 +4842,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K29">
         <v>0.002383549225982862</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4871,7 +4871,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4892,28 +4892,28 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>148</v>
+        <v>304</v>
       </c>
       <c r="K30">
-        <v>0.002382799403633122</v>
+        <v>0.002383549225982862</v>
       </c>
       <c r="L30">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>158</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4921,7 +4921,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4942,28 +4942,28 @@
         <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K31">
-        <v>0.002372005610419949</v>
+        <v>0.002382799403633122</v>
       </c>
       <c r="L31">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="M31">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4971,7 +4971,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4992,28 +4992,28 @@
         <v>27</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>305</v>
+        <v>149</v>
       </c>
       <c r="K32">
-        <v>0.002312382405314484</v>
+        <v>0.002372005610419949</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>149</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5021,7 +5021,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5042,7 +5042,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K33">
         <v>0.002312382405314484</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5071,7 +5071,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5092,16 +5092,16 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K34">
-        <v>0.002238954636461512</v>
+        <v>0.002312382405314484</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>285</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5121,7 +5121,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5142,7 +5142,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K35">
         <v>0.002238954636461512</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>128</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5171,7 +5171,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5192,28 +5192,28 @@
         <v>10</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>152</v>
+        <v>308</v>
       </c>
       <c r="K36">
-        <v>0.002185851714988606</v>
+        <v>0.002238954636461512</v>
       </c>
       <c r="L36">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>803</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5221,7 +5221,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5245,25 +5245,25 @@
         <v>150</v>
       </c>
       <c r="K37">
-        <v>0.002177052853174288</v>
+        <v>0.002185851714988606</v>
       </c>
       <c r="L37">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M37">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>782</v>
+        <v>803</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5271,7 +5271,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5292,28 +5292,28 @@
         <v>145</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="K38">
-        <v>0.002163035676972758</v>
+        <v>0.002177052853174288</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>26</v>
+        <v>782</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5321,7 +5321,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5342,7 +5342,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K39">
         <v>0.002163035676972758</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5371,7 +5371,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5392,28 +5392,28 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>146</v>
+        <v>310</v>
       </c>
       <c r="K40">
-        <v>0.002132618199475085</v>
+        <v>0.002163035676972758</v>
       </c>
       <c r="L40">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5421,7 +5421,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5471,7 +5471,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5521,7 +5521,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004875567677708179</v>
+        <v>0.00494507837373593</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5571,7 +5571,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5621,7 +5621,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5671,7 +5671,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5721,7 +5721,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5771,7 +5771,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5821,7 +5821,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5871,7 +5871,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5921,7 +5921,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5971,7 +5971,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -6021,7 +6021,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -6071,7 +6071,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6121,7 +6121,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6171,7 +6171,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004222365466765583</v>
+        <v>0.004282563495360354</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -6221,7 +6221,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6271,7 +6271,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6292,7 +6292,7 @@
         <v>10</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K58">
         <v>0.001863372456606527</v>
@@ -6321,7 +6321,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6371,7 +6371,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6421,7 +6421,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6471,7 +6471,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6492,7 +6492,7 @@
         <v>4</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K62">
         <v>0.001827386531378472</v>
@@ -6521,7 +6521,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6571,7 +6571,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6621,7 +6621,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6671,7 +6671,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6721,7 +6721,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6771,7 +6771,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6821,7 +6821,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6871,7 +6871,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6921,7 +6921,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6971,7 +6971,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003447546967041401</v>
+        <v>0.003496698451567621</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -7021,7 +7021,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003109868356374711</v>
+        <v>0.003154205575811668</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -7071,7 +7071,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002705285134549636</v>
+        <v>0.002743854233593394</v>
       </c>
       <c r="C74">
         <v>11</v>
@@ -7121,7 +7121,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -7171,7 +7171,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7221,7 +7221,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7242,7 +7242,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K77">
         <v>0.001620596642206211</v>
@@ -7271,7 +7271,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>6</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K78">
         <v>0.001620596642206211</v>
@@ -7321,7 +7321,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7342,7 +7342,7 @@
         <v>10</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K79">
         <v>0.001587245539705616</v>
@@ -7371,7 +7371,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K80">
         <v>0.001587245539705616</v>
@@ -7421,7 +7421,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7471,7 +7471,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7521,7 +7521,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7571,7 +7571,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7621,7 +7621,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7721,7 +7721,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7771,7 +7771,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7871,7 +7871,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K90">
         <v>0.001451080782404477</v>
@@ -7921,7 +7921,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7971,7 +7971,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8021,7 +8021,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8121,7 +8121,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8171,7 +8171,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8221,7 +8221,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8271,7 +8271,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8321,7 +8321,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8371,7 +8371,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8421,7 +8421,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8521,7 +8521,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8571,7 +8571,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8621,7 +8621,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8671,7 +8671,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8721,7 +8721,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8771,7 +8771,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8821,7 +8821,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8892,7 +8892,7 @@
         <v>18</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K110">
         <v>0.001403058249219741</v>
@@ -8921,7 +8921,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8942,7 +8942,7 @@
         <v>9</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K111">
         <v>0.001371915946956692</v>
@@ -8971,7 +8971,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8992,7 +8992,7 @@
         <v>26</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K112">
         <v>0.001310137771339207</v>
@@ -9021,7 +9021,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9071,7 +9071,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9121,7 +9121,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9171,7 +9171,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9221,7 +9221,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9271,7 +9271,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9321,7 +9321,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9371,7 +9371,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9471,7 +9471,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9521,7 +9521,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9571,7 +9571,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9671,7 +9671,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9721,7 +9721,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9771,7 +9771,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9821,7 +9821,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9921,7 +9921,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9971,7 +9971,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10021,7 +10021,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10071,7 +10071,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10171,7 +10171,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10221,7 +10221,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10271,7 +10271,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10321,7 +10321,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002437783838854089</v>
+        <v>0.002472539186867965</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10371,7 +10371,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002432655812200305</v>
+        <v>0.002467338050224634</v>
       </c>
       <c r="C140">
         <v>10</v>
@@ -10421,25 +10421,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002248270947390911</v>
+        <v>0.0019834855357454</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D141">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="E141">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F141">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>401</v>
@@ -10471,25 +10471,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002108892798350293</v>
+        <v>0.001802760775673364</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="E142">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F142">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>402</v>
@@ -10521,13 +10521,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001955604590342611</v>
+        <v>0.001791969481834776</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E143">
         <v>0.96</v>
@@ -10539,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>158</v>
+        <v>782</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>403</v>
@@ -10571,13 +10571,13 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00177742019523805</v>
+        <v>0.001723071059468201</v>
       </c>
       <c r="C144">
         <v>3</v>
       </c>
       <c r="D144">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E144">
         <v>0.97</v>
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>404</v>
@@ -10621,25 +10621,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001766780589661825</v>
+        <v>0.001661357284055501</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E145">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F145">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>782</v>
+        <v>803</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>405</v>
@@ -10671,25 +10671,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001698850640781808</v>
+        <v>0.001584934891746019</v>
       </c>
       <c r="C146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>13</v>
+        <v>320</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>406</v>
@@ -10721,25 +10721,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001638004347572468</v>
+        <v>0.001584934891746019</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147">
         <v>98</v>
       </c>
       <c r="E147">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F147">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>803</v>
+        <v>14</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>407</v>
@@ -10771,28 +10771,28 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001562656189740189</v>
+        <v>0.001565195261866</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="E148">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F148">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K148">
         <v>0.001261587477797099</v>
@@ -10821,28 +10821,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001562656189740189</v>
+        <v>0.001543330091528162</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>784</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K149">
         <v>0.001162432537244104</v>
@@ -10871,25 +10871,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001543194030773388</v>
+        <v>0.001423136515479659</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D150">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E150">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F150">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>408</v>
@@ -10921,25 +10921,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001521636209094981</v>
+        <v>0.001395869530463324</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E151">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F151">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>784</v>
+        <v>24</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>409</v>
@@ -10971,25 +10971,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.00140313213895473</v>
+        <v>0.001370983593579412</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>410</v>
@@ -11021,25 +11021,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001376248433426365</v>
+        <v>0.001368435431947806</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E153">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F153">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>24</v>
+        <v>1090</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>411</v>
@@ -11071,25 +11071,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001351712306730153</v>
+        <v>0.001364740851843033</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E154">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F154">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>412</v>
@@ -11121,25 +11121,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001349199963436542</v>
+        <v>0.001271817028761227</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E155">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F155">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1090</v>
+        <v>158</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>413</v>
@@ -11171,25 +11171,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001345557316347832</v>
+        <v>0.001255826565562993</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E156">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F156">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>414</v>
@@ -11221,25 +11221,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001253939680778499</v>
+        <v>0.001226718749138634</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D157">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E157">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F157">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>158</v>
+        <v>589</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>415</v>
@@ -11271,25 +11271,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001238173988178971</v>
+        <v>0.001212372782097029</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E158">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F158">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>35</v>
+        <v>365</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>416</v>
@@ -11321,25 +11321,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001209475326964417</v>
+        <v>0.001069532061583789</v>
       </c>
       <c r="C159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E159">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F159">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>417</v>
@@ -11371,25 +11371,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001195331014594162</v>
+        <v>0.001069532061583789</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E160">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F160">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>418</v>
@@ -11421,13 +11421,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001054498140499841</v>
+        <v>0.001060219299319173</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E161">
         <v>0.98</v>
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>419</v>
@@ -11471,13 +11471,13 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001054498140499841</v>
+        <v>0.001060219299319173</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E162">
         <v>0.98</v>
@@ -11489,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>420</v>
@@ -11521,25 +11521,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001045316283458161</v>
+        <v>0.00104969533474917</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163">
         <v>42</v>
       </c>
       <c r="E163">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>16</v>
+        <v>525</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>421</v>
@@ -11571,25 +11571,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001045316283458161</v>
+        <v>0.001020314942585771</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E164">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F164">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>422</v>
@@ -11621,25 +11621,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001034940249425745</v>
+        <v>0.0009754466377766111</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>525</v>
+        <v>129</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>423</v>
@@ -11671,25 +11671,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001005972843944153</v>
+        <v>0.0009723336000318186</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E166">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>424</v>
@@ -11721,25 +11721,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0009617352322931511</v>
+        <v>0.0009723336000318186</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
         <v>34</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>425</v>
@@ -11771,25 +11771,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0009586659530904983</v>
+        <v>0.0009332444653880259</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D168">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>426</v>
@@ -11821,25 +11821,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0009586659530904983</v>
+        <v>0.0008979755952611585</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E169">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F169">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>427</v>
@@ -11871,25 +11871,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0009201262764635176</v>
+        <v>0.0008778657159898034</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F170">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>428</v>
@@ -11921,25 +11921,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0008853531646493295</v>
+        <v>0.000865333276999598</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E171">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F171">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>429</v>
@@ -11971,25 +11971,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0008655259607168751</v>
+        <v>0.000865333276999598</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E172">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F172">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>430</v>
@@ -12021,25 +12021,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0008531696844669331</v>
+        <v>0.0008132587151387969</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
         <v>26</v>
       </c>
       <c r="E173">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>431</v>
@@ -12071,25 +12071,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0008531696844669331</v>
+        <v>0.0007411809903278837</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E174">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F174">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>432</v>
@@ -12121,25 +12121,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0008018271108107091</v>
+        <v>0.0007342839039152446</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E175">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F175">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>433</v>
@@ -12171,25 +12171,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.000730762549480948</v>
+        <v>0.0007342839039152446</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E176">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>434</v>
@@ -12221,7 +12221,7 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.00072396241224502</v>
+        <v>0.0007342839039152446</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -12239,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>435</v>
@@ -12271,25 +12271,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.00072396241224502</v>
+        <v>0.0007115682577398296</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>436</v>
@@ -12321,25 +12321,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.00072396241224502</v>
+        <v>0.0007115682577398296</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E179">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F179">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>437</v>
@@ -12371,25 +12371,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0007015660694773649</v>
+        <v>0.000688147717687613</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E180">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F180">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>438</v>
@@ -12421,25 +12421,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0007015660694773649</v>
+        <v>0.0006808674761672601</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D181">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E181">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F181">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>54</v>
+        <v>520</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>439</v>
@@ -12471,25 +12471,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006784747412024623</v>
+        <v>0.0006620655082687411</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E182">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>440</v>
@@ -12521,25 +12521,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0006712968346942333</v>
+        <v>0.0006599034899806875</v>
       </c>
       <c r="C183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E183">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F183">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>520</v>
+        <v>8</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>441</v>
@@ -12571,25 +12571,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0006527591574250113</v>
+        <v>0.0006349646327491916</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E184">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F184">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>442</v>
@@ -12621,25 +12621,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0006506275296352814</v>
+        <v>0.0006060418840845278</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E185">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F185">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>443</v>
@@ -12671,25 +12671,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0006260392264685107</v>
+        <v>0.0005750607523337025</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E186">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F186">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>444</v>
@@ -12721,25 +12721,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005975230316011324</v>
+        <v>0.0005627743101819096</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D187">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>445</v>
@@ -12771,13 +12771,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005669773873934701</v>
+        <v>0.0005417379362219072</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E188">
         <v>0.92</v>
@@ -12789,10 +12789,10 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K188">
         <v>0.001088773385947565</v>
@@ -12821,28 +12821,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0005548636501173395</v>
+        <v>0.0005417379362219072</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F189">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K189">
         <v>0.001011602493043647</v>
@@ -12871,28 +12871,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0005341229748066499</v>
+        <v>0.0005330505952503082</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E190">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F190">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K190">
         <v>0.001011602493043647</v>
@@ -12921,25 +12921,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005341229748066499</v>
+        <v>0.0005330505952503082</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E191">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F191">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>446</v>
@@ -12971,25 +12971,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005255577477980516</v>
+        <v>0.0005057309936787324</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>447</v>
@@ -13021,25 +13021,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0005255577477980516</v>
+        <v>0.0005057309936787324</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F193">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>448</v>
@@ -13071,7 +13071,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004986221653212039</v>
+        <v>0.0005057309936787324</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -13089,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>449</v>
@@ -13121,7 +13121,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0004986221653212039</v>
+        <v>0.0005057309936787324</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -13139,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>450</v>
@@ -13171,25 +13171,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0004986221653212039</v>
+        <v>0.000497244247445673</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>451</v>
@@ -13221,25 +13221,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0004986221653212039</v>
+        <v>0.0004970912382384383</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E197">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="F197">
-        <v>0.08999999999999997</v>
+        <v>0.16</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>452</v>
@@ -13271,25 +13271,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0004902547133830143</v>
+        <v>0.000466622232694013</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E198">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F198">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>453</v>
@@ -13321,25 +13321,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0004901038549559472</v>
+        <v>0.000466622232694013</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E199">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F199">
-        <v>0.16</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>454</v>
@@ -13371,7 +13371,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0004600631382317588</v>
+        <v>0.000466622232694013</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13389,7 +13389,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>455</v>
@@ -13421,7 +13421,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0004600631382317588</v>
+        <v>0.000466622232694013</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13439,7 +13439,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>350</v>
+        <v>57</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>456</v>
@@ -13471,25 +13471,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004600631382317588</v>
+        <v>0.0004595033000974884</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>457</v>
@@ -13521,25 +13521,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004600631382317588</v>
+        <v>0.0004595033000974884</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E203">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F203">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>458</v>
@@ -13571,25 +13571,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004530442732018854</v>
+        <v>0.0004238980327936427</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F204">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>459</v>
@@ -13621,25 +13621,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0004530442732018854</v>
+        <v>0.0004196553680051359</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E205">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="F205">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>460</v>
@@ -13671,25 +13671,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004179394927913697</v>
+        <v>0.0004099321696902814</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E206">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>48</v>
+        <v>928</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>461</v>
@@ -13721,25 +13721,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.000413756465193656</v>
+        <v>0.0003769236906170185</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F207">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>462</v>
@@ -13771,25 +13771,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004041699414128333</v>
+        <v>0.0003769236906170185</v>
       </c>
       <c r="C208">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F208">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>928</v>
+        <v>23</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>463</v>
@@ -13821,7 +13821,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003716254473731316</v>
+        <v>0.0003769236906170185</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13839,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>464</v>
@@ -13871,25 +13871,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003716254473731316</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F210">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>465</v>
@@ -13921,25 +13921,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003716254473731316</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F211">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>466</v>
@@ -13971,7 +13971,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000320350677758784</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>467</v>
@@ -14021,7 +14021,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000320350677758784</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14039,7 +14039,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>468</v>
@@ -14071,7 +14071,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.000320350677758784</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>469</v>
@@ -14121,7 +14121,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000320350677758784</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>470</v>
@@ -14171,7 +14171,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.000320350677758784</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14189,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>471</v>
@@ -14221,7 +14221,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.000320350677758784</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14239,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>472</v>
@@ -14271,7 +14271,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000320350677758784</v>
+        <v>0.0003249178994765312</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14289,7 +14289,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>473</v>
@@ -14321,25 +14321,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.000320350677758784</v>
+        <v>0.0002856948305482907</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>474</v>
@@ -14371,25 +14371,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.000320350677758784</v>
+        <v>0.0002669464899121338</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>475</v>
@@ -14421,25 +14421,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0002816789495000923</v>
+        <v>0.0002669464899121338</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>476</v>
@@ -14471,7 +14471,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0002631941456794297</v>
+        <v>0.0002669464899121338</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14489,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>477</v>
@@ -14521,7 +14521,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0002631941456794297</v>
+        <v>0.0002669464899121338</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14539,7 +14539,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>478</v>
@@ -14571,7 +14571,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0002631941456794297</v>
+        <v>0.0002669464899121338</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>479</v>
@@ -14621,7 +14621,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0002631941456794297</v>
+        <v>0.0002669464899121338</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14639,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>480</v>
@@ -14671,25 +14671,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002631941456794297</v>
+        <v>0.0002357855607502457</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F226">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>481</v>
@@ -14721,25 +14721,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002631941456794297</v>
+        <v>0.0002357855607502457</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E227">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F227">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>482</v>
@@ -14771,25 +14771,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.000232471231390353</v>
+        <v>0.0002020167520306379</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F228">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>483</v>
@@ -14821,25 +14821,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.000232471231390353</v>
+        <v>0.0002020167520306379</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>484</v>
@@ -14871,7 +14871,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001991770953090183</v>
+        <v>0.0002020167520306379</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14889,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>485</v>
@@ -14921,7 +14921,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001991770953090183</v>
+        <v>0.0002020167520306379</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14939,7 +14939,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>486</v>
@@ -14971,7 +14971,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001991770953090183</v>
+        <v>0.0002020167520306379</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14989,7 +14989,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>487</v>
@@ -15021,25 +15021,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001991770953090183</v>
+        <v>0.0001833272395182888</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>488</v>
@@ -15071,25 +15071,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001991770953090183</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>459</v>
+        <v>49</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>489</v>
@@ -15121,13 +15121,13 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001807502926922398</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E235">
         <v>0.75</v>
@@ -15139,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>490</v>
@@ -15171,7 +15171,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>491</v>
@@ -15221,7 +15221,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15239,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>492</v>
@@ -15271,7 +15271,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15289,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>493</v>
@@ -15321,7 +15321,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15339,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>494</v>
@@ -15371,7 +15371,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15389,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>495</v>
@@ -15421,7 +15421,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15439,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>496</v>
@@ -15471,7 +15471,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15489,7 +15489,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>497</v>
@@ -15521,7 +15521,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15539,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>498</v>
@@ -15571,7 +15571,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15589,7 +15589,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>499</v>
@@ -15621,7 +15621,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001278097576641365</v>
+        <v>0.000129631934239593</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15639,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>500</v>
@@ -15671,25 +15671,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001278097576641365</v>
+        <v>7.461925000938131E-05</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F246">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>501</v>
@@ -15721,25 +15721,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001278097576641365</v>
+        <v>7.461925000938131E-05</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>502</v>
@@ -15771,25 +15771,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>7.357036147552733E-05</v>
+        <v>7.461925000938014E-05</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E248">
+        <v>0.67</v>
+      </c>
+      <c r="F248">
         <v>0.33</v>
       </c>
-      <c r="F248">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>503</v>
@@ -15821,25 +15821,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>7.357036147552733E-05</v>
+        <v>7.461925000938014E-05</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E249">
+        <v>0.67</v>
+      </c>
+      <c r="F249">
         <v>0.33</v>
       </c>
-      <c r="F249">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>504</v>
@@ -15871,13 +15871,13 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>7.357036147552619E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E250">
         <v>0.67</v>
@@ -15889,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>505</v>
@@ -15921,13 +15921,13 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>7.357036147552619E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E251">
         <v>0.67</v>
@@ -15939,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>506</v>
@@ -15971,7 +15971,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -15989,7 +15989,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>507</v>
@@ -16021,7 +16021,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16039,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>508</v>
@@ -16071,7 +16071,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16089,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>509</v>
@@ -16121,7 +16121,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16139,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>510</v>
@@ -16171,7 +16171,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16189,7 +16189,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>511</v>
@@ -16221,7 +16221,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16239,7 +16239,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>512</v>
@@ -16271,7 +16271,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16289,7 +16289,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>513</v>
@@ -16321,7 +16321,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16339,7 +16339,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>514</v>
@@ -16371,7 +16371,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>515</v>
@@ -16421,7 +16421,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16439,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>516</v>
@@ -16471,7 +16471,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16489,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>517</v>
@@ -16521,7 +16521,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>518</v>
@@ -16571,7 +16571,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16589,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>519</v>
@@ -16621,7 +16621,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>5.20221014936901E-05</v>
+        <v>5.276377768868704E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16639,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>520</v>
@@ -16671,25 +16671,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>5.20221014936901E-05</v>
+        <v>2.578475138286429E-05</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F266">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>521</v>
@@ -16721,25 +16721,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>5.20221014936901E-05</v>
+        <v>2.578475138286429E-05</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E267">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F267">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>522</v>
@@ -16771,7 +16771,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>2.542230697246936E-05</v>
+        <v>2.578475138286429E-05</v>
       </c>
       <c r="C268">
         <v>2</v>
@@ -16789,7 +16789,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>523</v>
@@ -16821,25 +16821,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>2.542230697246936E-05</v>
+        <v>0</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E269">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F269">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>524</v>
@@ -16871,25 +16871,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>2.542230697246936E-05</v>
+        <v>0</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E270">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F270">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>525</v>
@@ -16939,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>526</v>
@@ -16989,7 +16989,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>527</v>
@@ -17039,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>528</v>
@@ -17074,10 +17074,10 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E274">
         <v>0.5</v>
@@ -17089,10 +17089,10 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K274">
         <v>0.0009598657510630806</v>
@@ -17124,10 +17124,10 @@
         <v>0</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E275">
         <v>0.5</v>
@@ -17139,10 +17139,10 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K275">
         <v>0.0009093514556822004</v>
@@ -17174,10 +17174,10 @@
         <v>0</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E276">
         <v>0.5</v>
@@ -17189,10 +17189,10 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K276">
         <v>0.0009093514556822004</v>
@@ -17224,10 +17224,10 @@
         <v>0</v>
       </c>
       <c r="C277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E277">
         <v>0.5</v>
@@ -17239,10 +17239,10 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K277">
         <v>0.0008848943551372597</v>
@@ -17289,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>529</v>
@@ -17339,7 +17339,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>530</v>
@@ -17367,30 +17367,6 @@
       </c>
     </row>
     <row r="280" spans="1:17">
-      <c r="A280" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-      <c r="C280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <v>2</v>
-      </c>
-      <c r="E280">
-        <v>0.5</v>
-      </c>
-      <c r="F280">
-        <v>0.5</v>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280">
-        <v>41</v>
-      </c>
       <c r="J280" s="1" t="s">
         <v>531</v>
       </c>
@@ -17417,30 +17393,6 @@
       </c>
     </row>
     <row r="281" spans="1:17">
-      <c r="A281" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
-      </c>
-      <c r="D281">
-        <v>2</v>
-      </c>
-      <c r="E281">
-        <v>0.5</v>
-      </c>
-      <c r="F281">
-        <v>0.5</v>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281">
-        <v>83</v>
-      </c>
       <c r="J281" s="1" t="s">
         <v>532</v>
       </c>
@@ -21186,7 +21138,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K425">
         <v>0.0007855702590749105</v>
@@ -21212,7 +21164,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K426">
         <v>0.0007541390929140904</v>
@@ -21238,7 +21190,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K427">
         <v>0.0007283778699124152</v>
@@ -21264,7 +21216,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K428">
         <v>0.0007283778699124152</v>
@@ -21290,7 +21242,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K429">
         <v>0.0007283778699124152</v>
@@ -21316,7 +21268,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K430">
         <v>0.0006859579734783458</v>
@@ -21342,7 +21294,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K431">
         <v>0.0006859579734783458</v>
@@ -21368,7 +21320,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K432">
         <v>0.0006586820531299724</v>
@@ -21394,7 +21346,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K433">
         <v>0.0006545957167479767</v>
@@ -21420,7 +21372,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K434">
         <v>0.0005995191693027362</v>
@@ -30624,7 +30576,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K788">
         <v>0.0005615331542346389</v>
@@ -30650,7 +30602,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K789">
         <v>0.0005554820572903421</v>
@@ -30676,7 +30628,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K790">
         <v>0.000510893994142876</v>
@@ -30702,7 +30654,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K791">
         <v>0.0004959066795185398</v>
@@ -30728,7 +30680,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K792">
         <v>0.0004657585464140813</v>
@@ -30754,7 +30706,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K793">
         <v>0.0004628690702481628</v>
@@ -30780,7 +30732,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K794">
         <v>0.0004310918215731369</v>
@@ -30806,7 +30758,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K795">
         <v>0.0004200897383372982</v>
@@ -30832,7 +30784,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K796">
         <v>0.0004200897383372982</v>
@@ -30858,7 +30810,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K797">
         <v>0.0003739177240831623</v>
@@ -30884,7 +30836,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K798">
         <v>0.0003739177240831623</v>
@@ -30910,7 +30862,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K799">
         <v>0.0003739177240831623</v>
@@ -30936,7 +30888,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K800">
         <v>0.0003739177240831623</v>
@@ -30962,7 +30914,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K801">
         <v>0.0003297417467156968</v>
@@ -30988,7 +30940,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K802">
         <v>0.0003297417467156968</v>
@@ -31014,7 +30966,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K803">
         <v>0.0003272978583739884</v>
@@ -31040,7 +30992,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K804">
         <v>0.0003272978583739884</v>
@@ -31066,7 +31018,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K805">
         <v>0.0003272978583739884</v>
@@ -31092,7 +31044,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K806">
         <v>0.0003272978583739884</v>
@@ -31118,7 +31070,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K807">
         <v>0.0003223045013723317</v>
@@ -31144,7 +31096,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K808">
         <v>0.0002964032268409877</v>
@@ -31170,7 +31122,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K809">
         <v>0.0002803256747060923</v>
@@ -31196,7 +31148,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K810">
         <v>0.0002684058355197457</v>
@@ -31222,7 +31174,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K811">
         <v>0.0002631605233881244</v>
@@ -31248,7 +31200,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K812">
         <v>0.0002631605233881244</v>
@@ -31274,7 +31226,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K813">
         <v>0.0002331626251429667</v>
@@ -31300,7 +31252,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K814">
         <v>0.0002331626251429667</v>
@@ -31326,7 +31278,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K815">
         <v>0.0002331626251429667</v>
@@ -31352,7 +31304,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K816">
         <v>0.0002301074125397601</v>
@@ -31378,7 +31330,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K817">
         <v>0.0001860825906283438</v>
@@ -31404,7 +31356,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K818">
         <v>0.0001860825906283438</v>
@@ -31430,7 +31382,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K819">
         <v>0.0001860825906283438</v>
@@ -31456,7 +31408,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K820">
         <v>0.0001860825906283438</v>
@@ -31482,7 +31434,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K821">
         <v>0.0001860825906283438</v>
@@ -31508,7 +31460,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K822">
         <v>0.0001860825906283438</v>
@@ -31534,7 +31486,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K823">
         <v>0.0001860825906283438</v>
@@ -31560,7 +31512,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K824">
         <v>0.0001860825906283438</v>
@@ -31586,7 +31538,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K825">
         <v>0.0001860825906283438</v>
@@ -31612,7 +31564,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K826">
         <v>0.0001660080354192913</v>
@@ -31638,7 +31590,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K827">
         <v>0.0001395615224207215</v>
@@ -31664,7 +31616,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K828">
         <v>0.0001395615224207215</v>
@@ -31690,7 +31642,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K829">
         <v>0.0001395615224207215</v>
@@ -31716,7 +31668,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K830">
         <v>0.0001395615224207215</v>
@@ -31742,7 +31694,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K831">
         <v>0.0001395615224207215</v>
@@ -31768,7 +31720,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K832">
         <v>0.0001395615224207215</v>
@@ -31794,7 +31746,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K833">
         <v>0.0001335945862775215</v>
@@ -31820,7 +31772,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K834">
         <v>0.0001031353886576529</v>
@@ -31846,7 +31798,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K835">
         <v>0.0001031353886576529</v>
@@ -31872,7 +31824,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K836">
         <v>9.446563788664673E-05</v>
@@ -31898,7 +31850,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K837">
         <v>9.446563788664673E-05</v>
@@ -31924,7 +31876,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K838">
         <v>9.446563788664673E-05</v>
@@ -31950,7 +31902,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K839">
         <v>9.446563788664673E-05</v>
@@ -31976,7 +31928,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K840">
         <v>9.446563788664673E-05</v>
@@ -32002,7 +31954,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K841">
         <v>7.424105040174561E-05</v>
@@ -32028,7 +31980,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K842">
         <v>5.249635018148658E-05</v>
@@ -32054,7 +32006,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K843">
         <v>5.249635018148658E-05</v>
@@ -32080,7 +32032,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K844">
         <v>5.249635018148658E-05</v>
@@ -32106,7 +32058,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K845">
         <v>5.249635018148658E-05</v>
@@ -32132,7 +32084,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K846">
         <v>5.249635018148658E-05</v>
@@ -32158,7 +32110,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K847">
         <v>5.249635018148658E-05</v>
@@ -32184,7 +32136,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K848">
         <v>5.249635018148658E-05</v>
@@ -32210,7 +32162,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K849">
         <v>5.249635018148658E-05</v>
@@ -32236,7 +32188,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K850">
         <v>5.249635018148658E-05</v>
@@ -32262,7 +32214,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K851">
         <v>5.249635018148658E-05</v>
@@ -32288,7 +32240,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K852">
         <v>5.249635018148658E-05</v>
@@ -32314,7 +32266,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K853">
         <v>5.249635018148658E-05</v>
@@ -32340,7 +32292,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K854">
         <v>2.467302273979319E-05</v>
@@ -32366,7 +32318,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K855">
         <v>2.467302273979319E-05</v>
@@ -32392,7 +32344,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K856">
         <v>1.744646169167775E-05</v>
@@ -32418,7 +32370,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K857">
         <v>1.744646169167775E-05</v>
@@ -32444,7 +32396,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K858">
         <v>1.744646169167775E-05</v>
@@ -32470,7 +32422,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K859">
         <v>1.744646169167775E-05</v>
@@ -32496,7 +32448,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K860">
         <v>1.744646169167775E-05</v>
@@ -32522,7 +32474,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K861">
         <v>1.744646169167775E-05</v>
@@ -32548,7 +32500,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K862">
         <v>1.744646169167775E-05</v>
@@ -32574,7 +32526,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K863">
         <v>1.744646169167775E-05</v>
@@ -32600,7 +32552,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K864">
         <v>1.744646169167775E-05</v>
@@ -32626,7 +32578,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K865">
         <v>1.744646169167775E-05</v>
@@ -32652,7 +32604,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K866">
         <v>1.744646169167775E-05</v>
@@ -32678,7 +32630,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K867">
         <v>1.744646169167775E-05</v>
@@ -32704,7 +32656,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K868">
         <v>1.744646169167775E-05</v>
@@ -32730,7 +32682,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K869">
         <v>1.744646169167775E-05</v>
@@ -32756,7 +32708,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K870">
         <v>1.744646169167775E-05</v>
@@ -32782,7 +32734,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K871">
         <v>1.744646169167775E-05</v>
@@ -32808,7 +32760,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K872">
         <v>1.233651136989647E-05</v>
@@ -32834,7 +32786,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K873">
         <v>1.233651136989647E-05</v>
@@ -32860,7 +32812,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K874">
         <v>7.383547264957194E-06</v>
@@ -32886,7 +32838,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K875">
         <v>7.383547264957194E-06</v>
@@ -32912,7 +32864,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K876">
         <v>7.383547264957194E-06</v>
@@ -32938,7 +32890,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K877">
         <v>0</v>
@@ -32964,7 +32916,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K878">
         <v>0</v>
@@ -32990,7 +32942,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K879">
         <v>0</v>
@@ -33016,7 +32968,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K880">
         <v>0</v>
@@ -33042,7 +32994,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K881">
         <v>0</v>
@@ -33068,7 +33020,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K882">
         <v>0</v>
@@ -33094,7 +33046,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K883">
         <v>0</v>
@@ -33120,7 +33072,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K884">
         <v>0</v>
@@ -33146,7 +33098,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K885">
         <v>0</v>
@@ -33172,7 +33124,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K886">
         <v>0</v>
@@ -33198,7 +33150,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K887">
         <v>0</v>
